--- a/hw1/Homework1_DATA专家评分的平均数 - eng.xlsx
+++ b/hw1/Homework1_DATA专家评分的平均数 - eng.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Summer2021\hw1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\FICO-Internship\hw1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1BBC05-C164-4701-8558-7FECD92401F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13510F88-FC59-4C03-8F78-25850A88CE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA专家评分的平均数" sheetId="65" r:id="rId1"/>
@@ -1411,7 +1411,7 @@
   <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1497,6 +1497,10 @@
       <c r="C13" s="10" t="s">
         <v>57</v>
       </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="2:18" ht="15" customHeight="1"/>
     <row r="15" spans="2:18" ht="15" customHeight="1" thickBot="1"/>
